--- a/biology/Zoologie/Bruant_de_Worthen/Bruant_de_Worthen.xlsx
+++ b/biology/Zoologie/Bruant_de_Worthen/Bruant_de_Worthen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spizella wortheni
 Le Bruant de Worthen (Spizella wortheni) est une espèce de passereau de la famille des Passerellidae originaire du continent nord-américain.
@@ -512,10 +524,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique à une petite région du nord-est du Mexique.
-Il vit dans les prairies buissonneuses arides et ouvertes entre 1 200 et 2 450 m d'altitude[1].
+Il vit dans les prairies buissonneuses arides et ouvertes entre 1 200 et 2 450 m d'altitude.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est parfois considéré comme une sous-espèce du Bruant des champs.
 </t>
